--- a/Sprint 10/Datos/Sprint 10.xlsx
+++ b/Sprint 10/Datos/Sprint 10.xlsx
@@ -14,6 +14,7 @@
     <sheet state="visible" name="categorias_producto" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">ordenes!$A$1:$B$63</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">detalles_pedido!$A$1:$I$1074</definedName>
   </definedNames>
   <calcPr/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="301">
   <si>
     <t>cli_id</t>
   </si>
@@ -743,6 +744,9 @@
     <t>ord_61</t>
   </si>
   <si>
+    <t>ord_62</t>
+  </si>
+  <si>
     <t>co_id</t>
   </si>
   <si>
@@ -1039,13 +1043,13 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -19946,7 +19950,7 @@
       <c r="A41" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="10">
         <v>1.0</v>
       </c>
     </row>
@@ -19962,16 +19966,16 @@
       <c r="A43" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="10">
-        <v>2.0</v>
+      <c r="B43" s="16">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="16">
-        <v>1.0</v>
+      <c r="B44" s="10">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -20074,24 +20078,24 @@
       <c r="A57" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="10">
-        <v>2.0</v>
+      <c r="B57" s="16">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="16">
-        <v>1.0</v>
+      <c r="B58" s="10">
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="10">
-        <v>2.0</v>
+      <c r="B59" s="16">
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -20099,7 +20103,7 @@
         <v>237</v>
       </c>
       <c r="B60" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
@@ -20119,7 +20123,12 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="33"/>
+      <c r="A63" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="33"/>
@@ -22831,6 +22840,7 @@
       <c r="A966" s="33"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$B$63"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -22871,24 +22881,24 @@
         <v>60</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>122</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>153</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>3</v>
@@ -22900,13 +22910,13 @@
         <v>88</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>130</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>163</v>
@@ -22917,7 +22927,7 @@
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>3</v>
@@ -22929,13 +22939,13 @@
         <v>88</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>157</v>
@@ -22946,7 +22956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>3</v>
@@ -22958,13 +22968,13 @@
         <v>88</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>159</v>
@@ -22975,7 +22985,7 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>3</v>
@@ -22987,13 +22997,13 @@
         <v>88</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>130</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>161</v>
@@ -23004,7 +23014,7 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>4</v>
@@ -23016,13 +23026,13 @@
         <v>64</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>157</v>
@@ -23033,7 +23043,7 @@
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>4</v>
@@ -23045,13 +23055,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H7" s="47" t="s">
         <v>161</v>
@@ -23062,7 +23072,7 @@
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>5</v>
@@ -23074,13 +23084,13 @@
         <v>86</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>157</v>
@@ -23091,7 +23101,7 @@
     </row>
     <row r="9">
       <c r="A9" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>5</v>
@@ -23103,13 +23113,13 @@
         <v>86</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H9" s="47" t="s">
         <v>161</v>
@@ -23120,7 +23130,7 @@
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>5</v>
@@ -23132,13 +23142,13 @@
         <v>64</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>161</v>
@@ -23149,7 +23159,7 @@
     </row>
     <row r="11">
       <c r="A11" s="43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>19</v>
@@ -23161,13 +23171,13 @@
         <v>90</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>157</v>
@@ -23178,7 +23188,7 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>19</v>
@@ -23190,13 +23200,13 @@
         <v>90</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>171</v>
@@ -23207,7 +23217,7 @@
     </row>
     <row r="13">
       <c r="A13" s="43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>19</v>
@@ -23219,13 +23229,13 @@
         <v>90</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F13" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H13" s="47" t="s">
         <v>173</v>
@@ -23236,7 +23246,7 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>19</v>
@@ -23248,13 +23258,13 @@
         <v>90</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>175</v>
@@ -23265,7 +23275,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>19</v>
@@ -23277,13 +23287,13 @@
         <v>94</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F15" s="47" t="s">
         <v>131</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H15" s="47" t="s">
         <v>157</v>
@@ -23294,7 +23304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>19</v>
@@ -23306,13 +23316,13 @@
         <v>94</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>171</v>
@@ -23323,7 +23333,7 @@
     </row>
     <row r="17">
       <c r="A17" s="50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>19</v>
@@ -23335,13 +23345,13 @@
         <v>94</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H17" s="47" t="s">
         <v>173</v>
@@ -23352,7 +23362,7 @@
     </row>
     <row r="18">
       <c r="A18" s="50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>19</v>
@@ -23364,13 +23374,13 @@
         <v>94</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>131</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>175</v>
@@ -23381,7 +23391,7 @@
     </row>
     <row r="19">
       <c r="A19" s="43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>6</v>
@@ -23393,13 +23403,13 @@
         <v>84</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F19" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>157</v>
@@ -23410,7 +23420,7 @@
     </row>
     <row r="20">
       <c r="A20" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>6</v>
@@ -23422,13 +23432,13 @@
         <v>84</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>159</v>
@@ -23439,7 +23449,7 @@
     </row>
     <row r="21">
       <c r="A21" s="43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>6</v>
@@ -23451,13 +23461,13 @@
         <v>84</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H21" s="47" t="s">
         <v>161</v>
@@ -23468,7 +23478,7 @@
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>6</v>
@@ -23480,13 +23490,13 @@
         <v>84</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H22" s="32" t="s">
         <v>167</v>
@@ -23497,7 +23507,7 @@
     </row>
     <row r="23">
       <c r="A23" s="43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>6</v>
@@ -23509,13 +23519,13 @@
         <v>84</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H23" s="47" t="s">
         <v>169</v>
@@ -23526,7 +23536,7 @@
     </row>
     <row r="24">
       <c r="A24" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>6</v>
@@ -23538,13 +23548,13 @@
         <v>84</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>175</v>
@@ -23555,7 +23565,7 @@
     </row>
     <row r="25">
       <c r="A25" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>3</v>
@@ -23567,13 +23577,13 @@
         <v>82</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>161</v>
@@ -23584,7 +23594,7 @@
     </row>
     <row r="26">
       <c r="A26" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>3</v>
@@ -23596,13 +23606,13 @@
         <v>82</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>157</v>
@@ -23613,7 +23623,7 @@
     </row>
     <row r="27">
       <c r="A27" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>3</v>
@@ -23625,13 +23635,13 @@
         <v>82</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>159</v>
@@ -23642,7 +23652,7 @@
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>3</v>
@@ -23654,13 +23664,13 @@
         <v>82</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H28" s="39" t="s">
         <v>169</v>
@@ -23671,7 +23681,7 @@
     </row>
     <row r="29">
       <c r="A29" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>3</v>
@@ -23683,13 +23693,13 @@
         <v>86</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>157</v>
@@ -23700,7 +23710,7 @@
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>3</v>
@@ -23712,13 +23722,13 @@
         <v>86</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H30" s="41" t="s">
         <v>161</v>
@@ -23729,7 +23739,7 @@
     </row>
     <row r="31">
       <c r="A31" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>5</v>
@@ -23741,13 +23751,13 @@
         <v>64</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>161</v>
@@ -23758,7 +23768,7 @@
     </row>
     <row r="32">
       <c r="A32" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>5</v>
@@ -23770,13 +23780,13 @@
         <v>64</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>159</v>
@@ -23787,7 +23797,7 @@
     </row>
     <row r="33">
       <c r="A33" s="43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>7</v>
@@ -23799,13 +23809,13 @@
         <v>84</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H33" s="47" t="s">
         <v>157</v>
@@ -23816,7 +23826,7 @@
     </row>
     <row r="34">
       <c r="A34" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>7</v>
@@ -23828,13 +23838,13 @@
         <v>84</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>159</v>
@@ -23845,7 +23855,7 @@
     </row>
     <row r="35">
       <c r="A35" s="43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>7</v>
@@ -23857,13 +23867,13 @@
         <v>84</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H35" s="47" t="s">
         <v>161</v>
@@ -23874,7 +23884,7 @@
     </row>
     <row r="36">
       <c r="A36" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>7</v>
@@ -23886,13 +23896,13 @@
         <v>84</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>163</v>
@@ -23903,7 +23913,7 @@
     </row>
     <row r="37">
       <c r="A37" s="43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>7</v>
@@ -23915,13 +23925,13 @@
         <v>84</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H37" s="47" t="s">
         <v>167</v>
@@ -23932,7 +23942,7 @@
     </row>
     <row r="38">
       <c r="A38" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>7</v>
@@ -23944,13 +23954,13 @@
         <v>84</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H38" s="32" t="s">
         <v>169</v>
@@ -23961,7 +23971,7 @@
     </row>
     <row r="39">
       <c r="A39" s="43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B39" s="44" t="s">
         <v>8</v>
@@ -23973,13 +23983,13 @@
         <v>74</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H39" s="44" t="s">
         <v>171</v>
@@ -23990,7 +24000,7 @@
     </row>
     <row r="40">
       <c r="A40" s="38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>8</v>
@@ -24002,13 +24012,13 @@
         <v>74</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>173</v>
@@ -24019,7 +24029,7 @@
     </row>
     <row r="41">
       <c r="A41" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>9</v>
@@ -24031,13 +24041,13 @@
         <v>88</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>159</v>
@@ -24048,7 +24058,7 @@
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B42" s="39" t="s">
         <v>9</v>
@@ -24060,13 +24070,13 @@
         <v>88</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>169</v>
@@ -24077,7 +24087,7 @@
     </row>
     <row r="43">
       <c r="A43" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>9</v>
@@ -24089,13 +24099,13 @@
         <v>116</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>171</v>
@@ -24106,7 +24116,7 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>9</v>
@@ -24118,13 +24128,13 @@
         <v>116</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F44" s="41" t="s">
         <v>149</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H44" s="39" t="s">
         <v>173</v>
@@ -24135,7 +24145,7 @@
     </row>
     <row r="45">
       <c r="A45" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B45" s="44" t="s">
         <v>9</v>
@@ -24147,13 +24157,13 @@
         <v>116</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>146</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>175</v>
@@ -24164,7 +24174,7 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>10</v>
@@ -24176,13 +24186,13 @@
         <v>64</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H46" s="39" t="s">
         <v>165</v>
@@ -24193,7 +24203,7 @@
     </row>
     <row r="47">
       <c r="A47" s="43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B47" s="44" t="s">
         <v>10</v>
@@ -24205,13 +24215,13 @@
         <v>82</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>163</v>
@@ -24222,7 +24232,7 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>10</v>
@@ -24234,13 +24244,13 @@
         <v>82</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H48" s="40" t="s">
         <v>157</v>
@@ -24251,7 +24261,7 @@
     </row>
     <row r="49">
       <c r="A49" s="43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B49" s="44" t="s">
         <v>10</v>
@@ -24263,13 +24273,13 @@
         <v>82</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H49" s="45" t="s">
         <v>159</v>
@@ -24280,7 +24290,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B50" s="39" t="s">
         <v>10</v>
@@ -24292,13 +24302,13 @@
         <v>82</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H50" s="40" t="s">
         <v>161</v>
@@ -24309,7 +24319,7 @@
     </row>
     <row r="51">
       <c r="A51" s="43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>3</v>
@@ -24321,13 +24331,13 @@
         <v>86</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H51" s="49" t="s">
         <v>163</v>
@@ -24338,7 +24348,7 @@
     </row>
     <row r="52">
       <c r="A52" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B52" s="39" t="s">
         <v>3</v>
@@ -24350,13 +24360,13 @@
         <v>86</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H52" s="40" t="s">
         <v>161</v>
@@ -24367,7 +24377,7 @@
     </row>
     <row r="53">
       <c r="A53" s="43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B53" s="44" t="s">
         <v>11</v>
@@ -24379,13 +24389,13 @@
         <v>64</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>157</v>
@@ -24396,7 +24406,7 @@
     </row>
     <row r="54">
       <c r="A54" s="38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>11</v>
@@ -24408,13 +24418,13 @@
         <v>64</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>169</v>
@@ -24425,7 +24435,7 @@
     </row>
     <row r="55">
       <c r="A55" s="43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B55" s="44" t="s">
         <v>11</v>
@@ -24437,13 +24447,13 @@
         <v>64</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>161</v>
@@ -24454,7 +24464,7 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B56" s="39" t="s">
         <v>12</v>
@@ -24466,13 +24476,13 @@
         <v>82</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H56" s="39" t="s">
         <v>157</v>
@@ -24483,7 +24493,7 @@
     </row>
     <row r="57">
       <c r="A57" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B57" s="44" t="s">
         <v>12</v>
@@ -24495,13 +24505,13 @@
         <v>82</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H57" s="44" t="s">
         <v>159</v>
@@ -24512,7 +24522,7 @@
     </row>
     <row r="58">
       <c r="A58" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B58" s="39" t="s">
         <v>12</v>
@@ -24524,13 +24534,13 @@
         <v>82</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H58" s="39" t="s">
         <v>161</v>
@@ -24541,7 +24551,7 @@
     </row>
     <row r="59">
       <c r="A59" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B59" s="44" t="s">
         <v>12</v>
@@ -24553,13 +24563,13 @@
         <v>82</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H59" s="44" t="s">
         <v>163</v>
@@ -24570,7 +24580,7 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>10</v>
@@ -24582,13 +24592,13 @@
         <v>86</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H60" s="32" t="s">
         <v>161</v>
@@ -24599,7 +24609,7 @@
     </row>
     <row r="61">
       <c r="A61" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B61" s="44" t="s">
         <v>10</v>
@@ -24611,13 +24621,13 @@
         <v>86</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H61" s="47" t="s">
         <v>165</v>
@@ -24628,7 +24638,7 @@
     </row>
     <row r="62">
       <c r="A62" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>13</v>
@@ -24640,13 +24650,13 @@
         <v>64</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H62" s="39" t="s">
         <v>165</v>
@@ -24657,7 +24667,7 @@
     </row>
     <row r="63">
       <c r="A63" s="43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B63" s="44" t="s">
         <v>5</v>
@@ -24669,13 +24679,13 @@
         <v>64</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H63" s="44" t="s">
         <v>161</v>
@@ -24686,7 +24696,7 @@
     </row>
     <row r="64">
       <c r="A64" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B64" s="39" t="s">
         <v>5</v>
@@ -24698,13 +24708,13 @@
         <v>64</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H64" s="39" t="s">
         <v>163</v>
@@ -24715,7 +24725,7 @@
     </row>
     <row r="65">
       <c r="A65" s="43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B65" s="44" t="s">
         <v>14</v>
@@ -24727,13 +24737,13 @@
         <v>76</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G65" s="49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H65" s="49" t="s">
         <v>155</v>
@@ -24744,7 +24754,7 @@
     </row>
     <row r="66">
       <c r="A66" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B66" s="39" t="s">
         <v>15</v>
@@ -24756,13 +24766,13 @@
         <v>116</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>143</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H66" s="39" t="s">
         <v>173</v>
@@ -24773,7 +24783,7 @@
     </row>
     <row r="67">
       <c r="A67" s="43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>15</v>
@@ -24785,13 +24795,13 @@
         <v>116</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F67" s="49" t="s">
         <v>149</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H67" s="44" t="s">
         <v>173</v>
@@ -24802,7 +24812,7 @@
     </row>
     <row r="68">
       <c r="A68" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B68" s="39" t="s">
         <v>15</v>
@@ -24814,13 +24824,13 @@
         <v>116</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F68" s="41" t="s">
         <v>146</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H68" s="39" t="s">
         <v>175</v>
@@ -24831,7 +24841,7 @@
     </row>
     <row r="69">
       <c r="A69" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B69" s="44" t="s">
         <v>5</v>
@@ -24843,13 +24853,13 @@
         <v>64</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H69" s="44" t="s">
         <v>161</v>
@@ -24860,7 +24870,7 @@
     </row>
     <row r="70">
       <c r="A70" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B70" s="39" t="s">
         <v>18</v>
@@ -24872,13 +24882,13 @@
         <v>82</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H70" s="32" t="s">
         <v>157</v>
@@ -24889,7 +24899,7 @@
     </row>
     <row r="71">
       <c r="A71" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B71" s="44" t="s">
         <v>18</v>
@@ -24901,13 +24911,13 @@
         <v>82</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F71" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H71" s="47" t="s">
         <v>159</v>
@@ -24918,7 +24928,7 @@
     </row>
     <row r="72">
       <c r="A72" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B72" s="39" t="s">
         <v>18</v>
@@ -24930,13 +24940,13 @@
         <v>82</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H72" s="32" t="s">
         <v>161</v>
@@ -24947,7 +24957,7 @@
     </row>
     <row r="73">
       <c r="A73" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>18</v>
@@ -24959,13 +24969,13 @@
         <v>82</v>
       </c>
       <c r="E73" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F73" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G73" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H73" s="47" t="s">
         <v>169</v>
@@ -24976,7 +24986,7 @@
     </row>
     <row r="74">
       <c r="A74" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B74" s="39" t="s">
         <v>3</v>
@@ -24988,13 +24998,13 @@
         <v>82</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H74" s="39" t="s">
         <v>161</v>
@@ -25005,7 +25015,7 @@
     </row>
     <row r="75">
       <c r="A75" s="43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B75" s="44" t="s">
         <v>3</v>
@@ -25017,13 +25027,13 @@
         <v>82</v>
       </c>
       <c r="E75" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F75" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H75" s="44" t="s">
         <v>159</v>
@@ -25034,7 +25044,7 @@
     </row>
     <row r="76">
       <c r="A76" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B76" s="39" t="s">
         <v>3</v>
@@ -25046,13 +25056,13 @@
         <v>82</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H76" s="39" t="s">
         <v>165</v>
@@ -25063,7 +25073,7 @@
     </row>
     <row r="77">
       <c r="A77" s="43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B77" s="44" t="s">
         <v>3</v>
@@ -25075,13 +25085,13 @@
         <v>82</v>
       </c>
       <c r="E77" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G77" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H77" s="44" t="s">
         <v>169</v>
@@ -25092,7 +25102,7 @@
     </row>
     <row r="78">
       <c r="A78" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B78" s="39" t="s">
         <v>10</v>
@@ -25104,13 +25114,13 @@
         <v>86</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H78" s="39" t="s">
         <v>161</v>
@@ -25121,7 +25131,7 @@
     </row>
     <row r="79">
       <c r="A79" s="43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B79" s="44" t="s">
         <v>10</v>
@@ -25133,13 +25143,13 @@
         <v>86</v>
       </c>
       <c r="E79" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F79" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G79" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H79" s="44" t="s">
         <v>163</v>
@@ -25150,7 +25160,7 @@
     </row>
     <row r="80">
       <c r="A80" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B80" s="39" t="s">
         <v>3</v>
@@ -25162,13 +25172,13 @@
         <v>106</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H80" s="39" t="s">
         <v>169</v>
@@ -25179,7 +25189,7 @@
     </row>
     <row r="81">
       <c r="A81" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B81" s="44" t="s">
         <v>11</v>
@@ -25191,13 +25201,13 @@
         <v>82</v>
       </c>
       <c r="E81" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F81" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G81" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H81" s="47" t="s">
         <v>157</v>
@@ -25208,7 +25218,7 @@
     </row>
     <row r="82">
       <c r="A82" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>11</v>
@@ -25220,13 +25230,13 @@
         <v>82</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H82" s="32" t="s">
         <v>159</v>
@@ -25237,7 +25247,7 @@
     </row>
     <row r="83">
       <c r="A83" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B83" s="44" t="s">
         <v>11</v>
@@ -25249,13 +25259,13 @@
         <v>82</v>
       </c>
       <c r="E83" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F83" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G83" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H83" s="47" t="s">
         <v>161</v>
@@ -25266,7 +25276,7 @@
     </row>
     <row r="84">
       <c r="A84" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B84" s="39" t="s">
         <v>11</v>
@@ -25278,13 +25288,13 @@
         <v>82</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H84" s="32" t="s">
         <v>175</v>
@@ -25295,7 +25305,7 @@
     </row>
     <row r="85">
       <c r="A85" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B85" s="44" t="s">
         <v>11</v>
@@ -25307,13 +25317,13 @@
         <v>86</v>
       </c>
       <c r="E85" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F85" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G85" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H85" s="47" t="s">
         <v>157</v>
@@ -25324,7 +25334,7 @@
     </row>
     <row r="86">
       <c r="A86" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B86" s="39" t="s">
         <v>11</v>
@@ -25336,13 +25346,13 @@
         <v>86</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H86" s="32" t="s">
         <v>161</v>
@@ -25353,7 +25363,7 @@
     </row>
     <row r="87">
       <c r="A87" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B87" s="44" t="s">
         <v>11</v>
@@ -25365,13 +25375,13 @@
         <v>86</v>
       </c>
       <c r="E87" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F87" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H87" s="47" t="s">
         <v>161</v>
@@ -25382,7 +25392,7 @@
     </row>
     <row r="88">
       <c r="A88" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B88" s="39" t="s">
         <v>11</v>
@@ -25394,13 +25404,13 @@
         <v>86</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H88" s="32" t="s">
         <v>167</v>
@@ -25411,7 +25421,7 @@
     </row>
     <row r="89">
       <c r="A89" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B89" s="44" t="s">
         <v>11</v>
@@ -25423,13 +25433,13 @@
         <v>66</v>
       </c>
       <c r="E89" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F89" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H89" s="45" t="s">
         <v>159</v>
@@ -25440,25 +25450,25 @@
     </row>
     <row r="90">
       <c r="A90" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B90" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>66</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H90" s="40" t="s">
         <v>169</v>
@@ -25469,25 +25479,25 @@
     </row>
     <row r="91">
       <c r="A91" s="43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B91" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D91" s="44" t="s">
         <v>66</v>
       </c>
       <c r="E91" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F91" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H91" s="44" t="s">
         <v>163</v>
@@ -25498,25 +25508,25 @@
     </row>
     <row r="92">
       <c r="A92" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B92" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D92" s="39" t="s">
         <v>64</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F92" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H92" s="39" t="s">
         <v>165</v>
@@ -25527,25 +25537,25 @@
     </row>
     <row r="93">
       <c r="A93" s="43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B93" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D93" s="44" t="s">
         <v>76</v>
       </c>
       <c r="E93" s="44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F93" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G93" s="49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H93" s="49" t="s">
         <v>155</v>
@@ -25556,25 +25566,25 @@
     </row>
     <row r="94">
       <c r="A94" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B94" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D94" s="54" t="s">
         <v>64</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H94" s="32" t="s">
         <v>157</v>
@@ -25585,25 +25595,25 @@
     </row>
     <row r="95">
       <c r="A95" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B95" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D95" s="53" t="s">
         <v>64</v>
       </c>
       <c r="E95" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F95" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H95" s="47" t="s">
         <v>161</v>
@@ -25614,25 +25624,25 @@
     </row>
     <row r="96">
       <c r="A96" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B96" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D96" s="54" t="s">
         <v>64</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H96" s="32" t="s">
         <v>167</v>
@@ -25643,25 +25653,25 @@
     </row>
     <row r="97">
       <c r="A97" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B97" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D97" s="53" t="s">
         <v>64</v>
       </c>
       <c r="E97" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F97" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H97" s="47" t="s">
         <v>169</v>
@@ -25672,25 +25682,25 @@
     </row>
     <row r="98">
       <c r="A98" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B98" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98" s="54" t="s">
         <v>118</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F98" s="39" t="s">
         <v>150</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H98" s="32" t="s">
         <v>157</v>
@@ -25701,25 +25711,25 @@
     </row>
     <row r="99">
       <c r="A99" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B99" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D99" s="53" t="s">
         <v>120</v>
       </c>
       <c r="E99" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F99" s="44" t="s">
         <v>152</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H99" s="47" t="s">
         <v>175</v>
@@ -25730,25 +25740,25 @@
     </row>
     <row r="100">
       <c r="A100" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B100" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D100" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F100" s="32" t="s">
         <v>134</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H100" s="32" t="s">
         <v>175</v>
@@ -25759,25 +25769,25 @@
     </row>
     <row r="101">
       <c r="A101" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B101" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>74</v>
       </c>
       <c r="E101" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F101" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G101" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H101" s="47" t="s">
         <v>157</v>
@@ -25788,25 +25798,25 @@
     </row>
     <row r="102">
       <c r="A102" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B102" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D102" s="41" t="s">
         <v>74</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F102" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H102" s="32" t="s">
         <v>175</v>
@@ -25817,25 +25827,25 @@
     </row>
     <row r="103">
       <c r="A103" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D103" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F103" s="58" t="s">
         <v>140</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>155</v>
@@ -25846,25 +25856,25 @@
     </row>
     <row r="104">
       <c r="A104" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F104" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H104" s="62" t="s">
         <v>157</v>
@@ -25875,25 +25885,25 @@
     </row>
     <row r="105">
       <c r="A105" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F105" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H105" s="62" t="s">
         <v>161</v>
@@ -25904,25 +25914,25 @@
     </row>
     <row r="106">
       <c r="A106" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F106" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H106" s="62" t="s">
         <v>167</v>
@@ -25933,25 +25943,25 @@
     </row>
     <row r="107">
       <c r="A107" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F107" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H107" s="62" t="s">
         <v>169</v>
@@ -25962,25 +25972,25 @@
     </row>
     <row r="108">
       <c r="A108" s="60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F108" s="58" t="s">
         <v>130</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H108" s="62" t="s">
         <v>165</v>
@@ -25991,25 +26001,25 @@
     </row>
     <row r="109">
       <c r="A109" s="60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F109" s="58" t="s">
         <v>130</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H109" s="62" t="s">
         <v>169</v>
@@ -26020,25 +26030,25 @@
     </row>
     <row r="110">
       <c r="A110" s="60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F110" s="65" t="s">
         <v>130</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>169</v>
@@ -26049,25 +26059,25 @@
     </row>
     <row r="111">
       <c r="A111" s="60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F111" s="65" t="s">
         <v>130</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>169</v>
@@ -26078,25 +26088,25 @@
     </row>
     <row r="112">
       <c r="A112" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D112" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F112" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G112" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H112" s="62" t="s">
         <v>157</v>
@@ -26107,25 +26117,25 @@
     </row>
     <row r="113">
       <c r="A113" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D113" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F113" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G113" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H113" s="62" t="s">
         <v>175</v>
@@ -26136,25 +26146,25 @@
     </row>
     <row r="114">
       <c r="A114" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D114" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F114" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G114" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>171</v>
@@ -26165,25 +26175,25 @@
     </row>
     <row r="115">
       <c r="A115" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D115" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F115" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G115" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>173</v>
@@ -26194,25 +26204,25 @@
     </row>
     <row r="116">
       <c r="A116" s="66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D116" s="54" t="s">
         <v>116</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>143</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H116" s="39" t="s">
         <v>173</v>
@@ -26223,25 +26233,25 @@
     </row>
     <row r="117">
       <c r="A117" s="66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D117" s="53" t="s">
         <v>116</v>
       </c>
       <c r="E117" s="44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F117" s="49" t="s">
         <v>149</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H117" s="44" t="s">
         <v>173</v>
@@ -26252,25 +26262,25 @@
     </row>
     <row r="118">
       <c r="A118" s="66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D118" s="54" t="s">
         <v>116</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F118" s="41" t="s">
         <v>146</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H118" s="39" t="s">
         <v>173</v>
@@ -26281,25 +26291,25 @@
     </row>
     <row r="119">
       <c r="A119" s="66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D119" s="44" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F119" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G119" s="44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H119" s="44" t="s">
         <v>165</v>
@@ -26310,25 +26320,25 @@
     </row>
     <row r="120">
       <c r="A120" s="70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B120" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>78</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F120" s="41" t="s">
         <v>140</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H120" s="41" t="s">
         <v>155</v>
@@ -36857,66 +36867,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C2" s="71"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -36943,15 +36953,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>128</v>
@@ -36959,15 +36969,15 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>144</v>
@@ -36975,10 +36985,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 10/Datos/Sprint 10.xlsx
+++ b/Sprint 10/Datos/Sprint 10.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="296">
   <si>
     <t>cli_id</t>
   </si>
@@ -738,15 +738,6 @@
     <t>ord_59</t>
   </si>
   <si>
-    <t>ord_60</t>
-  </si>
-  <si>
-    <t>ord_61</t>
-  </si>
-  <si>
-    <t>ord_62</t>
-  </si>
-  <si>
     <t>co_id</t>
   </si>
   <si>
@@ -808,9 +799,6 @@
   </si>
   <si>
     <t>ped_13</t>
-  </si>
-  <si>
-    <t>co_00</t>
   </si>
   <si>
     <t>ped_14</t>
@@ -886,9 +874,6 @@
   </si>
   <si>
     <t>co_descripción</t>
-  </si>
-  <si>
-    <t>Personalizado</t>
   </si>
   <si>
     <t>Producto unitario</t>
@@ -993,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1201,9 +1186,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1237,7 +1219,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="5">
+  <tableStyles count="4">
     <tableStyle count="2" pivot="0" name="clientes-style">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
@@ -1251,10 +1233,6 @@
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="categorias_opcion-style">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="1" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="categorias_opcion-style 2">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -1330,22 +1308,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B2:C2" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B3:C5" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="categorias_opcion-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B4:C6" displayName="Table_5" name="Table_5" id="5">
-  <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="categorias_opcion-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -19622,8 +19590,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.25"/>
-    <col customWidth="1" min="2" max="2" width="11.5"/>
+    <col customWidth="1" min="1" max="1" width="8.63"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20062,8 +20030,8 @@
       <c r="A55" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B55" s="16">
-        <v>1.0</v>
+      <c r="B55" s="10">
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -20078,8 +20046,8 @@
       <c r="A57" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="16">
-        <v>1.0</v>
+      <c r="B57" s="10">
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -20087,14 +20055,14 @@
         <v>235</v>
       </c>
       <c r="B58" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="10">
         <v>1.0</v>
       </c>
     </row>
@@ -20103,32 +20071,17 @@
         <v>237</v>
       </c>
       <c r="B60" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="B61" s="10">
-        <v>1.0</v>
-      </c>
+      <c r="A61" s="32"/>
     </row>
     <row r="62">
-      <c r="A62" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B62" s="10">
-        <v>1.0</v>
-      </c>
+      <c r="A62" s="32"/>
     </row>
     <row r="63">
-      <c r="A63" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" s="10">
-        <v>1.0</v>
-      </c>
+      <c r="A63" s="32"/>
     </row>
     <row r="64">
       <c r="A64" s="33"/>
@@ -22881,24 +22834,24 @@
         <v>60</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>122</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>153</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>3</v>
@@ -22910,13 +22863,13 @@
         <v>88</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>130</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>163</v>
@@ -22927,7 +22880,7 @@
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>3</v>
@@ -22939,13 +22892,13 @@
         <v>88</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H3" s="45" t="s">
         <v>157</v>
@@ -22956,7 +22909,7 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>3</v>
@@ -22968,13 +22921,13 @@
         <v>88</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>159</v>
@@ -22985,7 +22938,7 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>3</v>
@@ -22997,13 +22950,13 @@
         <v>88</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>130</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>161</v>
@@ -23014,7 +22967,7 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>4</v>
@@ -23026,13 +22979,13 @@
         <v>64</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>157</v>
@@ -23043,7 +22996,7 @@
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>4</v>
@@ -23055,13 +23008,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H7" s="47" t="s">
         <v>161</v>
@@ -23072,7 +23025,7 @@
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>5</v>
@@ -23084,13 +23037,13 @@
         <v>86</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>157</v>
@@ -23101,7 +23054,7 @@
     </row>
     <row r="9">
       <c r="A9" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>5</v>
@@ -23113,13 +23066,13 @@
         <v>86</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H9" s="47" t="s">
         <v>161</v>
@@ -23130,7 +23083,7 @@
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>5</v>
@@ -23142,13 +23095,13 @@
         <v>64</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>161</v>
@@ -23159,7 +23112,7 @@
     </row>
     <row r="11">
       <c r="A11" s="43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>19</v>
@@ -23171,13 +23124,13 @@
         <v>90</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H11" s="47" t="s">
         <v>157</v>
@@ -23188,7 +23141,7 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>19</v>
@@ -23200,13 +23153,13 @@
         <v>90</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>171</v>
@@ -23217,7 +23170,7 @@
     </row>
     <row r="13">
       <c r="A13" s="43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>19</v>
@@ -23229,13 +23182,13 @@
         <v>90</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F13" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H13" s="47" t="s">
         <v>173</v>
@@ -23246,7 +23199,7 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>19</v>
@@ -23258,13 +23211,13 @@
         <v>90</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>175</v>
@@ -23275,7 +23228,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>19</v>
@@ -23287,13 +23240,13 @@
         <v>94</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F15" s="47" t="s">
         <v>131</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H15" s="47" t="s">
         <v>157</v>
@@ -23304,7 +23257,7 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>19</v>
@@ -23316,13 +23269,13 @@
         <v>94</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>171</v>
@@ -23333,7 +23286,7 @@
     </row>
     <row r="17">
       <c r="A17" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>19</v>
@@ -23345,13 +23298,13 @@
         <v>94</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="47" t="s">
         <v>173</v>
@@ -23362,7 +23315,7 @@
     </row>
     <row r="18">
       <c r="A18" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>19</v>
@@ -23374,13 +23327,13 @@
         <v>94</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>131</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>175</v>
@@ -23391,7 +23344,7 @@
     </row>
     <row r="19">
       <c r="A19" s="43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>6</v>
@@ -23403,13 +23356,13 @@
         <v>84</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F19" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>157</v>
@@ -23420,7 +23373,7 @@
     </row>
     <row r="20">
       <c r="A20" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>6</v>
@@ -23432,13 +23385,13 @@
         <v>84</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>159</v>
@@ -23449,7 +23402,7 @@
     </row>
     <row r="21">
       <c r="A21" s="43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>6</v>
@@ -23461,13 +23414,13 @@
         <v>84</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H21" s="47" t="s">
         <v>161</v>
@@ -23478,7 +23431,7 @@
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>6</v>
@@ -23490,13 +23443,13 @@
         <v>84</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H22" s="32" t="s">
         <v>167</v>
@@ -23507,7 +23460,7 @@
     </row>
     <row r="23">
       <c r="A23" s="43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>6</v>
@@ -23519,13 +23472,13 @@
         <v>84</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H23" s="47" t="s">
         <v>169</v>
@@ -23536,7 +23489,7 @@
     </row>
     <row r="24">
       <c r="A24" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>6</v>
@@ -23548,13 +23501,13 @@
         <v>84</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>175</v>
@@ -23565,7 +23518,7 @@
     </row>
     <row r="25">
       <c r="A25" s="43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>3</v>
@@ -23577,13 +23530,13 @@
         <v>82</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>161</v>
@@ -23594,7 +23547,7 @@
     </row>
     <row r="26">
       <c r="A26" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>3</v>
@@ -23606,13 +23559,13 @@
         <v>82</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>157</v>
@@ -23623,7 +23576,7 @@
     </row>
     <row r="27">
       <c r="A27" s="43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>3</v>
@@ -23635,13 +23588,13 @@
         <v>82</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>159</v>
@@ -23652,7 +23605,7 @@
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>3</v>
@@ -23664,13 +23617,13 @@
         <v>82</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H28" s="39" t="s">
         <v>169</v>
@@ -23681,7 +23634,7 @@
     </row>
     <row r="29">
       <c r="A29" s="43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>3</v>
@@ -23693,13 +23646,13 @@
         <v>86</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>157</v>
@@ -23710,7 +23663,7 @@
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>3</v>
@@ -23722,13 +23675,13 @@
         <v>86</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H30" s="41" t="s">
         <v>161</v>
@@ -23739,7 +23692,7 @@
     </row>
     <row r="31">
       <c r="A31" s="43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>5</v>
@@ -23751,13 +23704,13 @@
         <v>64</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>161</v>
@@ -23768,7 +23721,7 @@
     </row>
     <row r="32">
       <c r="A32" s="38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>5</v>
@@ -23780,13 +23733,13 @@
         <v>64</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>159</v>
@@ -23797,7 +23750,7 @@
     </row>
     <row r="33">
       <c r="A33" s="43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>7</v>
@@ -23809,13 +23762,13 @@
         <v>84</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H33" s="47" t="s">
         <v>157</v>
@@ -23826,7 +23779,7 @@
     </row>
     <row r="34">
       <c r="A34" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>7</v>
@@ -23838,13 +23791,13 @@
         <v>84</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>159</v>
@@ -23855,7 +23808,7 @@
     </row>
     <row r="35">
       <c r="A35" s="43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>7</v>
@@ -23867,13 +23820,13 @@
         <v>84</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H35" s="47" t="s">
         <v>161</v>
@@ -23884,7 +23837,7 @@
     </row>
     <row r="36">
       <c r="A36" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>7</v>
@@ -23896,13 +23849,13 @@
         <v>84</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>163</v>
@@ -23913,7 +23866,7 @@
     </row>
     <row r="37">
       <c r="A37" s="43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>7</v>
@@ -23925,13 +23878,13 @@
         <v>84</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H37" s="47" t="s">
         <v>167</v>
@@ -23942,7 +23895,7 @@
     </row>
     <row r="38">
       <c r="A38" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>7</v>
@@ -23954,13 +23907,13 @@
         <v>84</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H38" s="32" t="s">
         <v>169</v>
@@ -23971,7 +23924,7 @@
     </row>
     <row r="39">
       <c r="A39" s="43" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B39" s="44" t="s">
         <v>8</v>
@@ -23983,13 +23936,13 @@
         <v>74</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H39" s="44" t="s">
         <v>171</v>
@@ -24000,7 +23953,7 @@
     </row>
     <row r="40">
       <c r="A40" s="38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>8</v>
@@ -24012,13 +23965,13 @@
         <v>74</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>173</v>
@@ -24029,7 +23982,7 @@
     </row>
     <row r="41">
       <c r="A41" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>9</v>
@@ -24041,13 +23994,13 @@
         <v>88</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>159</v>
@@ -24058,7 +24011,7 @@
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="39" t="s">
         <v>9</v>
@@ -24070,13 +24023,13 @@
         <v>88</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>169</v>
@@ -24087,7 +24040,7 @@
     </row>
     <row r="43">
       <c r="A43" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>9</v>
@@ -24099,13 +24052,13 @@
         <v>116</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>171</v>
@@ -24116,7 +24069,7 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>9</v>
@@ -24128,13 +24081,13 @@
         <v>116</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F44" s="41" t="s">
         <v>149</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H44" s="39" t="s">
         <v>173</v>
@@ -24145,7 +24098,7 @@
     </row>
     <row r="45">
       <c r="A45" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B45" s="44" t="s">
         <v>9</v>
@@ -24157,13 +24110,13 @@
         <v>116</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>146</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>175</v>
@@ -24174,7 +24127,7 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>10</v>
@@ -24186,13 +24139,13 @@
         <v>64</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H46" s="39" t="s">
         <v>165</v>
@@ -24203,7 +24156,7 @@
     </row>
     <row r="47">
       <c r="A47" s="43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B47" s="44" t="s">
         <v>10</v>
@@ -24215,13 +24168,13 @@
         <v>82</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>163</v>
@@ -24232,7 +24185,7 @@
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>10</v>
@@ -24244,13 +24197,13 @@
         <v>82</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H48" s="40" t="s">
         <v>157</v>
@@ -24261,7 +24214,7 @@
     </row>
     <row r="49">
       <c r="A49" s="43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B49" s="44" t="s">
         <v>10</v>
@@ -24273,13 +24226,13 @@
         <v>82</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H49" s="45" t="s">
         <v>159</v>
@@ -24290,7 +24243,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B50" s="39" t="s">
         <v>10</v>
@@ -24302,13 +24255,13 @@
         <v>82</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H50" s="40" t="s">
         <v>161</v>
@@ -24319,7 +24272,7 @@
     </row>
     <row r="51">
       <c r="A51" s="43" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>3</v>
@@ -24331,13 +24284,13 @@
         <v>86</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H51" s="49" t="s">
         <v>163</v>
@@ -24348,7 +24301,7 @@
     </row>
     <row r="52">
       <c r="A52" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B52" s="39" t="s">
         <v>3</v>
@@ -24360,13 +24313,13 @@
         <v>86</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H52" s="40" t="s">
         <v>161</v>
@@ -24377,7 +24330,7 @@
     </row>
     <row r="53">
       <c r="A53" s="43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B53" s="44" t="s">
         <v>11</v>
@@ -24389,13 +24342,13 @@
         <v>64</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>157</v>
@@ -24406,7 +24359,7 @@
     </row>
     <row r="54">
       <c r="A54" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>11</v>
@@ -24418,13 +24371,13 @@
         <v>64</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>169</v>
@@ -24435,7 +24388,7 @@
     </row>
     <row r="55">
       <c r="A55" s="43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B55" s="44" t="s">
         <v>11</v>
@@ -24447,13 +24400,13 @@
         <v>64</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>161</v>
@@ -24464,7 +24417,7 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B56" s="39" t="s">
         <v>12</v>
@@ -24476,13 +24429,13 @@
         <v>82</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H56" s="39" t="s">
         <v>157</v>
@@ -24493,7 +24446,7 @@
     </row>
     <row r="57">
       <c r="A57" s="43" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B57" s="44" t="s">
         <v>12</v>
@@ -24505,13 +24458,13 @@
         <v>82</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H57" s="44" t="s">
         <v>159</v>
@@ -24522,7 +24475,7 @@
     </row>
     <row r="58">
       <c r="A58" s="38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B58" s="39" t="s">
         <v>12</v>
@@ -24534,13 +24487,13 @@
         <v>82</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H58" s="39" t="s">
         <v>161</v>
@@ -24551,7 +24504,7 @@
     </row>
     <row r="59">
       <c r="A59" s="43" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B59" s="44" t="s">
         <v>12</v>
@@ -24563,13 +24516,13 @@
         <v>82</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H59" s="44" t="s">
         <v>163</v>
@@ -24580,7 +24533,7 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>10</v>
@@ -24592,13 +24545,13 @@
         <v>86</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H60" s="32" t="s">
         <v>161</v>
@@ -24609,7 +24562,7 @@
     </row>
     <row r="61">
       <c r="A61" s="43" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B61" s="44" t="s">
         <v>10</v>
@@ -24621,13 +24574,13 @@
         <v>86</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H61" s="47" t="s">
         <v>165</v>
@@ -24638,7 +24591,7 @@
     </row>
     <row r="62">
       <c r="A62" s="38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>13</v>
@@ -24650,13 +24603,13 @@
         <v>64</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H62" s="39" t="s">
         <v>165</v>
@@ -24667,7 +24620,7 @@
     </row>
     <row r="63">
       <c r="A63" s="43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B63" s="44" t="s">
         <v>5</v>
@@ -24679,13 +24632,13 @@
         <v>64</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H63" s="44" t="s">
         <v>161</v>
@@ -24696,7 +24649,7 @@
     </row>
     <row r="64">
       <c r="A64" s="38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B64" s="39" t="s">
         <v>5</v>
@@ -24708,13 +24661,13 @@
         <v>64</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H64" s="39" t="s">
         <v>163</v>
@@ -24725,7 +24678,7 @@
     </row>
     <row r="65">
       <c r="A65" s="43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B65" s="44" t="s">
         <v>14</v>
@@ -24737,13 +24690,13 @@
         <v>76</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G65" s="49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H65" s="49" t="s">
         <v>155</v>
@@ -24754,7 +24707,7 @@
     </row>
     <row r="66">
       <c r="A66" s="38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B66" s="39" t="s">
         <v>15</v>
@@ -24766,13 +24719,13 @@
         <v>116</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>143</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H66" s="39" t="s">
         <v>173</v>
@@ -24783,7 +24736,7 @@
     </row>
     <row r="67">
       <c r="A67" s="43" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>15</v>
@@ -24795,13 +24748,13 @@
         <v>116</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F67" s="49" t="s">
         <v>149</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H67" s="44" t="s">
         <v>173</v>
@@ -24812,7 +24765,7 @@
     </row>
     <row r="68">
       <c r="A68" s="38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B68" s="39" t="s">
         <v>15</v>
@@ -24824,13 +24777,13 @@
         <v>116</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F68" s="41" t="s">
         <v>146</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H68" s="39" t="s">
         <v>175</v>
@@ -24841,7 +24794,7 @@
     </row>
     <row r="69">
       <c r="A69" s="43" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B69" s="44" t="s">
         <v>5</v>
@@ -24853,13 +24806,13 @@
         <v>64</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H69" s="44" t="s">
         <v>161</v>
@@ -24870,7 +24823,7 @@
     </row>
     <row r="70">
       <c r="A70" s="38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B70" s="39" t="s">
         <v>18</v>
@@ -24882,13 +24835,13 @@
         <v>82</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H70" s="32" t="s">
         <v>157</v>
@@ -24899,7 +24852,7 @@
     </row>
     <row r="71">
       <c r="A71" s="43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B71" s="44" t="s">
         <v>18</v>
@@ -24911,13 +24864,13 @@
         <v>82</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F71" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H71" s="47" t="s">
         <v>159</v>
@@ -24928,7 +24881,7 @@
     </row>
     <row r="72">
       <c r="A72" s="38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B72" s="39" t="s">
         <v>18</v>
@@ -24940,13 +24893,13 @@
         <v>82</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H72" s="32" t="s">
         <v>161</v>
@@ -24957,7 +24910,7 @@
     </row>
     <row r="73">
       <c r="A73" s="43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>18</v>
@@ -24969,13 +24922,13 @@
         <v>82</v>
       </c>
       <c r="E73" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F73" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G73" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H73" s="47" t="s">
         <v>169</v>
@@ -24986,7 +24939,7 @@
     </row>
     <row r="74">
       <c r="A74" s="38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B74" s="39" t="s">
         <v>3</v>
@@ -24998,13 +24951,13 @@
         <v>82</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H74" s="39" t="s">
         <v>161</v>
@@ -25015,7 +24968,7 @@
     </row>
     <row r="75">
       <c r="A75" s="43" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B75" s="44" t="s">
         <v>3</v>
@@ -25027,13 +24980,13 @@
         <v>82</v>
       </c>
       <c r="E75" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F75" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H75" s="44" t="s">
         <v>159</v>
@@ -25044,7 +24997,7 @@
     </row>
     <row r="76">
       <c r="A76" s="38" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B76" s="39" t="s">
         <v>3</v>
@@ -25056,13 +25009,13 @@
         <v>82</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H76" s="39" t="s">
         <v>165</v>
@@ -25073,7 +25026,7 @@
     </row>
     <row r="77">
       <c r="A77" s="43" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B77" s="44" t="s">
         <v>3</v>
@@ -25085,13 +25038,13 @@
         <v>82</v>
       </c>
       <c r="E77" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G77" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H77" s="44" t="s">
         <v>169</v>
@@ -25102,7 +25055,7 @@
     </row>
     <row r="78">
       <c r="A78" s="38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B78" s="39" t="s">
         <v>10</v>
@@ -25114,13 +25067,13 @@
         <v>86</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H78" s="39" t="s">
         <v>161</v>
@@ -25131,7 +25084,7 @@
     </row>
     <row r="79">
       <c r="A79" s="43" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B79" s="44" t="s">
         <v>10</v>
@@ -25143,13 +25096,13 @@
         <v>86</v>
       </c>
       <c r="E79" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F79" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G79" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H79" s="44" t="s">
         <v>163</v>
@@ -25160,7 +25113,7 @@
     </row>
     <row r="80">
       <c r="A80" s="38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B80" s="39" t="s">
         <v>3</v>
@@ -25172,13 +25125,13 @@
         <v>106</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H80" s="39" t="s">
         <v>169</v>
@@ -25189,7 +25142,7 @@
     </row>
     <row r="81">
       <c r="A81" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B81" s="44" t="s">
         <v>11</v>
@@ -25201,13 +25154,13 @@
         <v>82</v>
       </c>
       <c r="E81" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F81" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G81" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H81" s="47" t="s">
         <v>157</v>
@@ -25218,7 +25171,7 @@
     </row>
     <row r="82">
       <c r="A82" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>11</v>
@@ -25230,13 +25183,13 @@
         <v>82</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H82" s="32" t="s">
         <v>159</v>
@@ -25247,7 +25200,7 @@
     </row>
     <row r="83">
       <c r="A83" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B83" s="44" t="s">
         <v>11</v>
@@ -25259,13 +25212,13 @@
         <v>82</v>
       </c>
       <c r="E83" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F83" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G83" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H83" s="47" t="s">
         <v>161</v>
@@ -25276,7 +25229,7 @@
     </row>
     <row r="84">
       <c r="A84" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B84" s="39" t="s">
         <v>11</v>
@@ -25288,13 +25241,13 @@
         <v>82</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H84" s="32" t="s">
         <v>175</v>
@@ -25305,7 +25258,7 @@
     </row>
     <row r="85">
       <c r="A85" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B85" s="44" t="s">
         <v>11</v>
@@ -25317,13 +25270,13 @@
         <v>86</v>
       </c>
       <c r="E85" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F85" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G85" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H85" s="47" t="s">
         <v>157</v>
@@ -25334,7 +25287,7 @@
     </row>
     <row r="86">
       <c r="A86" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B86" s="39" t="s">
         <v>11</v>
@@ -25346,13 +25299,13 @@
         <v>86</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H86" s="32" t="s">
         <v>161</v>
@@ -25363,7 +25316,7 @@
     </row>
     <row r="87">
       <c r="A87" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B87" s="44" t="s">
         <v>11</v>
@@ -25375,13 +25328,13 @@
         <v>86</v>
       </c>
       <c r="E87" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F87" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H87" s="47" t="s">
         <v>161</v>
@@ -25392,7 +25345,7 @@
     </row>
     <row r="88">
       <c r="A88" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B88" s="39" t="s">
         <v>11</v>
@@ -25404,13 +25357,13 @@
         <v>86</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H88" s="32" t="s">
         <v>167</v>
@@ -25421,7 +25374,7 @@
     </row>
     <row r="89">
       <c r="A89" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B89" s="44" t="s">
         <v>11</v>
@@ -25433,13 +25386,13 @@
         <v>66</v>
       </c>
       <c r="E89" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F89" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H89" s="45" t="s">
         <v>159</v>
@@ -25450,7 +25403,7 @@
     </row>
     <row r="90">
       <c r="A90" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B90" s="39" t="s">
         <v>11</v>
@@ -25462,13 +25415,13 @@
         <v>66</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>130</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H90" s="40" t="s">
         <v>169</v>
@@ -25479,7 +25432,7 @@
     </row>
     <row r="91">
       <c r="A91" s="43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B91" s="44" t="s">
         <v>16</v>
@@ -25491,13 +25444,13 @@
         <v>66</v>
       </c>
       <c r="E91" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F91" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H91" s="44" t="s">
         <v>163</v>
@@ -25508,7 +25461,7 @@
     </row>
     <row r="92">
       <c r="A92" s="38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B92" s="39" t="s">
         <v>16</v>
@@ -25520,13 +25473,13 @@
         <v>64</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F92" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H92" s="39" t="s">
         <v>165</v>
@@ -25537,7 +25490,7 @@
     </row>
     <row r="93">
       <c r="A93" s="43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B93" s="44" t="s">
         <v>16</v>
@@ -25549,13 +25502,13 @@
         <v>76</v>
       </c>
       <c r="E93" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F93" s="47" t="s">
         <v>138</v>
       </c>
       <c r="G93" s="49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H93" s="49" t="s">
         <v>155</v>
@@ -25566,7 +25519,7 @@
     </row>
     <row r="94">
       <c r="A94" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B94" s="39" t="s">
         <v>8</v>
@@ -25575,16 +25528,16 @@
         <v>222</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H94" s="32" t="s">
         <v>157</v>
@@ -25595,25 +25548,25 @@
     </row>
     <row r="95">
       <c r="A95" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B95" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95" s="53" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E95" s="44" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F95" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H95" s="47" t="s">
         <v>161</v>
@@ -25624,25 +25577,25 @@
     </row>
     <row r="96">
       <c r="A96" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B96" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D96" s="54" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H96" s="32" t="s">
         <v>167</v>
@@ -25653,25 +25606,25 @@
     </row>
     <row r="97">
       <c r="A97" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B97" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E97" s="44" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F97" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H97" s="47" t="s">
         <v>169</v>
@@ -25682,25 +25635,25 @@
     </row>
     <row r="98">
       <c r="A98" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B98" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D98" s="54" t="s">
         <v>118</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F98" s="39" t="s">
         <v>150</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H98" s="32" t="s">
         <v>157</v>
@@ -25711,25 +25664,25 @@
     </row>
     <row r="99">
       <c r="A99" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B99" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D99" s="53" t="s">
         <v>120</v>
       </c>
       <c r="E99" s="44" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F99" s="44" t="s">
         <v>152</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H99" s="47" t="s">
         <v>175</v>
@@ -25740,25 +25693,25 @@
     </row>
     <row r="100">
       <c r="A100" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B100" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D100" s="41" t="s">
         <v>70</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F100" s="32" t="s">
         <v>134</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H100" s="32" t="s">
         <v>175</v>
@@ -25769,25 +25722,25 @@
     </row>
     <row r="101">
       <c r="A101" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B101" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>74</v>
       </c>
       <c r="E101" s="44" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F101" s="47" t="s">
         <v>137</v>
       </c>
       <c r="G101" s="49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H101" s="47" t="s">
         <v>157</v>
@@ -25798,25 +25751,25 @@
     </row>
     <row r="102">
       <c r="A102" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B102" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D102" s="41" t="s">
         <v>74</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F102" s="32" t="s">
         <v>137</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H102" s="32" t="s">
         <v>175</v>
@@ -25827,25 +25780,25 @@
     </row>
     <row r="103">
       <c r="A103" s="56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D103" s="57" t="s">
         <v>78</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F103" s="58" t="s">
         <v>140</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>155</v>
@@ -25856,25 +25809,25 @@
     </row>
     <row r="104">
       <c r="A104" s="60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F104" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H104" s="62" t="s">
         <v>157</v>
@@ -25885,25 +25838,25 @@
     </row>
     <row r="105">
       <c r="A105" s="60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F105" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H105" s="62" t="s">
         <v>161</v>
@@ -25914,25 +25867,25 @@
     </row>
     <row r="106">
       <c r="A106" s="60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F106" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H106" s="62" t="s">
         <v>167</v>
@@ -25943,25 +25896,25 @@
     </row>
     <row r="107">
       <c r="A107" s="60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F107" s="61" t="s">
         <v>127</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H107" s="62" t="s">
         <v>169</v>
@@ -25972,25 +25925,25 @@
     </row>
     <row r="108">
       <c r="A108" s="60" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F108" s="58" t="s">
         <v>130</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H108" s="62" t="s">
         <v>165</v>
@@ -26001,25 +25954,25 @@
     </row>
     <row r="109">
       <c r="A109" s="60" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F109" s="58" t="s">
         <v>130</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H109" s="62" t="s">
         <v>169</v>
@@ -26030,25 +25983,25 @@
     </row>
     <row r="110">
       <c r="A110" s="60" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F110" s="65" t="s">
         <v>130</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>169</v>
@@ -26059,25 +26012,25 @@
     </row>
     <row r="111">
       <c r="A111" s="60" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F111" s="65" t="s">
         <v>130</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>169</v>
@@ -26088,25 +26041,25 @@
     </row>
     <row r="112">
       <c r="A112" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D112" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F112" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G112" s="68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H112" s="62" t="s">
         <v>157</v>
@@ -26117,25 +26070,25 @@
     </row>
     <row r="113">
       <c r="A113" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D113" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F113" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G113" s="68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H113" s="62" t="s">
         <v>175</v>
@@ -26146,25 +26099,25 @@
     </row>
     <row r="114">
       <c r="A114" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D114" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F114" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G114" s="68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>171</v>
@@ -26175,25 +26128,25 @@
     </row>
     <row r="115">
       <c r="A115" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D115" s="67" t="s">
         <v>92</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F115" s="61" t="s">
         <v>135</v>
       </c>
       <c r="G115" s="68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>173</v>
@@ -26204,25 +26157,25 @@
     </row>
     <row r="116">
       <c r="A116" s="66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D116" s="54" t="s">
         <v>116</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>143</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H116" s="39" t="s">
         <v>173</v>
@@ -26233,25 +26186,25 @@
     </row>
     <row r="117">
       <c r="A117" s="66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D117" s="53" t="s">
         <v>116</v>
       </c>
       <c r="E117" s="44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F117" s="49" t="s">
         <v>149</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H117" s="44" t="s">
         <v>173</v>
@@ -26262,25 +26215,25 @@
     </row>
     <row r="118">
       <c r="A118" s="66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D118" s="54" t="s">
         <v>116</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F118" s="41" t="s">
         <v>146</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H118" s="39" t="s">
         <v>173</v>
@@ -26291,25 +26244,25 @@
     </row>
     <row r="119">
       <c r="A119" s="66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D119" s="44" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="44" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F119" s="47" t="s">
         <v>130</v>
       </c>
       <c r="G119" s="44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H119" s="44" t="s">
         <v>165</v>
@@ -26320,25 +26273,25 @@
     </row>
     <row r="120">
       <c r="A120" s="70" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B120" s="68" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>78</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F120" s="41" t="s">
         <v>140</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H120" s="41" t="s">
         <v>155</v>
@@ -36867,73 +36820,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="71"/>
+        <v>245</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>297</v>
+        <v>271</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -36953,15 +36896,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>128</v>
@@ -36969,15 +36912,15 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>144</v>
@@ -36985,10 +36928,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
